--- a/xlsx/歷史_intext.xlsx
+++ b/xlsx/歷史_intext.xlsx
@@ -29,7 +29,7 @@
     <t>历史 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_政治學_歷史</t>
+    <t>体育运动_体育运动_技术_歷史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%A7%93</t>
@@ -8177,7 +8177,7 @@
         <v>414</v>
       </c>
       <c r="G210" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
